--- a/template_pegase_v1/spectrophotometry.xlsx
+++ b/template_pegase_v1/spectrophotometry.xlsx
@@ -14,52 +14,52 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
   <si>
-    <t>operator</t>
+    <t>Operator</t>
   </si>
   <si>
-    <t>sampleid</t>
+    <t>SampleID</t>
   </si>
   <si>
-    <t>sampleddilution</t>
+    <t>Date</t>
   </si>
   <si>
-    <t>sampleportion</t>
+    <t>LaboratoryOperatingMode</t>
   </si>
   <si>
-    <t>rawdatapathway</t>
+    <t>CriticalApparatusCriticalSoftware</t>
   </si>
   <si>
-    <t>wavelength</t>
+    <t>CriticalProduct</t>
   </si>
   <si>
-    <t>date</t>
+    <t>RawDataPathway</t>
   </si>
   <si>
-    <t>criticalapparatuscriticalsoftware</t>
+    <t>SampledDilution</t>
   </si>
   <si>
-    <t>linearityrange</t>
+    <t>SamplePortion</t>
   </si>
   <si>
-    <t>resultopticaldensity</t>
+    <t>Wavelength</t>
   </si>
   <si>
-    <t>criticalproduct</t>
+    <t>LinearityRange</t>
   </si>
   <si>
-    <t>laboratoryoperatingmode</t>
+    <t>ResultOpticalDensity</t>
   </si>
   <si>
     <t>#string</t>
+  </si>
+  <si>
+    <t>#date</t>
   </si>
   <si>
     <t>#integer</t>
   </si>
   <si>
     <t>#float</t>
-  </si>
-  <si>
-    <t>#date</t>
   </si>
 </sst>
 </file>
@@ -159,31 +159,31 @@
         <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E2" t="s">
         <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
         <v>15</v>
       </c>
-      <c r="H2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" t="s">
-        <v>12</v>
-      </c>
       <c r="J2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K2" t="s">
         <v>12</v>
       </c>
       <c r="L2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/template_pegase_v1/spectrophotometry.xlsx
+++ b/template_pegase_v1/spectrophotometry.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
   <si>
     <t>Operator</t>
   </si>
@@ -59,7 +59,34 @@
     <t>#integer</t>
   </si>
   <si>
-    <t>#float</t>
+    <t>#float,  unit:mlormg</t>
+  </si>
+  <si>
+    <t>#integer,  unit:nm</t>
+  </si>
+  <si>
+    <t>#Manipulateur</t>
+  </si>
+  <si>
+    <t>#Desc:IdentifiantEchantillon</t>
+  </si>
+  <si>
+    <t>#Date</t>
+  </si>
+  <si>
+    <t>#ModeOderatoireLaboratoire</t>
+  </si>
+  <si>
+    <t>#AppareilLogicielCritique</t>
+  </si>
+  <si>
+    <t>#ProduitCritique</t>
+  </si>
+  <si>
+    <t>#LieuStockageDonneesBrutes</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
@@ -104,7 +131,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -177,13 +204,51 @@
         <v>15</v>
       </c>
       <c r="J2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K2" t="s">
         <v>12</v>
       </c>
       <c r="L2" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L3" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/template_pegase_v1/spectrophotometry.xlsx
+++ b/template_pegase_v1/spectrophotometry.xlsx
@@ -14,27 +14,27 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
   <si>
+    <t>Date</t>
+  </si>
+  <si>
     <t>Operator</t>
   </si>
   <si>
+    <t>LaboratoryOperatingMode</t>
+  </si>
+  <si>
+    <t>CriticalApparatusCriticalSoftware</t>
+  </si>
+  <si>
+    <t>CriticalProduct</t>
+  </si>
+  <si>
+    <t>RawDataPathway</t>
+  </si>
+  <si>
     <t>SampleID</t>
   </si>
   <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>LaboratoryOperatingMode</t>
-  </si>
-  <si>
-    <t>CriticalApparatusCriticalSoftware</t>
-  </si>
-  <si>
-    <t>CriticalProduct</t>
-  </si>
-  <si>
-    <t>RawDataPathway</t>
-  </si>
-  <si>
     <t>SampledDilution</t>
   </si>
   <si>
@@ -50,12 +50,12 @@
     <t>ResultOpticalDensity</t>
   </si>
   <si>
+    <t>#date</t>
+  </si>
+  <si>
     <t>#string</t>
   </si>
   <si>
-    <t>#date</t>
-  </si>
-  <si>
     <t>#integer</t>
   </si>
   <si>
@@ -65,25 +65,25 @@
     <t>#integer,  unit:nm</t>
   </si>
   <si>
+    <t>#Date</t>
+  </si>
+  <si>
     <t>#Manipulateur</t>
   </si>
   <si>
+    <t>#ModeOderatoireLaboratoire</t>
+  </si>
+  <si>
+    <t>#AppareilLogicielCritique</t>
+  </si>
+  <si>
+    <t>#ProduitCritique</t>
+  </si>
+  <si>
+    <t>#LieuStockageDonneesBrutes</t>
+  </si>
+  <si>
     <t>#Desc:IdentifiantEchantillon</t>
-  </si>
-  <si>
-    <t>#Date</t>
-  </si>
-  <si>
-    <t>#ModeOderatoireLaboratoire</t>
-  </si>
-  <si>
-    <t>#AppareilLogicielCritique</t>
-  </si>
-  <si>
-    <t>#ProduitCritique</t>
-  </si>
-  <si>
-    <t>#LieuStockageDonneesBrutes</t>
   </si>
   <si>
     <t/>
@@ -180,22 +180,22 @@
         <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H2" t="s">
         <v>14</v>
@@ -207,7 +207,7 @@
         <v>16</v>
       </c>
       <c r="K2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L2" t="s">
         <v>14</v>

--- a/template_pegase_v1/spectrophotometry.xlsx
+++ b/template_pegase_v1/spectrophotometry.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="38">
   <si>
     <t>Date</t>
   </si>
@@ -26,7 +26,10 @@
     <t>CriticalApparatusCriticalSoftware</t>
   </si>
   <si>
-    <t>CriticalProduct</t>
+    <t>CriticalProductReference</t>
+  </si>
+  <si>
+    <t>CriticalProductLot</t>
   </si>
   <si>
     <t>RawDataPathway</t>
@@ -35,19 +38,28 @@
     <t>SampleID</t>
   </si>
   <si>
+    <t>Wavelength</t>
+  </si>
+  <si>
+    <t>LinearityRange</t>
+  </si>
+  <si>
+    <t>CoefficientDeterminationR2</t>
+  </si>
+  <si>
+    <t>SlopeRegressionLine</t>
+  </si>
+  <si>
+    <t>SamplePortion</t>
+  </si>
+  <si>
     <t>SampledDilution</t>
   </si>
   <si>
-    <t>SamplePortion</t>
-  </si>
-  <si>
-    <t>Wavelength</t>
-  </si>
-  <si>
-    <t>LinearityRange</t>
-  </si>
-  <si>
-    <t>ResultOpticalDensity</t>
+    <t>OpticalDensity</t>
+  </si>
+  <si>
+    <t>Comment</t>
   </si>
   <si>
     <t>#date</t>
@@ -56,37 +68,64 @@
     <t>#string</t>
   </si>
   <si>
+    <t>#integer,  unit:nm</t>
+  </si>
+  <si>
+    <t>#float</t>
+  </si>
+  <si>
+    <t>#float,  unit:mlormg</t>
+  </si>
+  <si>
     <t>#integer</t>
   </si>
   <si>
-    <t>#float,  unit:mlormg</t>
-  </si>
-  <si>
-    <t>#integer,  unit:nm</t>
-  </si>
-  <si>
-    <t>#Date</t>
-  </si>
-  <si>
-    <t>#Manipulateur</t>
-  </si>
-  <si>
-    <t>#ModeOderatoireLaboratoire</t>
-  </si>
-  <si>
-    <t>#AppareilLogicielCritique</t>
-  </si>
-  <si>
-    <t>#ProduitCritique</t>
-  </si>
-  <si>
-    <t>#LieuStockageDonneesBrutes</t>
-  </si>
-  <si>
-    <t>#Desc:IdentifiantEchantillon</t>
-  </si>
-  <si>
-    <t/>
+    <t>#Date format jj/mm/aaa</t>
+  </si>
+  <si>
+    <t>#Manipulateur (LDAP)</t>
+  </si>
+  <si>
+    <t>#Mode Operatoire de Laboratoire (MOL)</t>
+  </si>
+  <si>
+    <t>#Appareil ou logiciel critique (si plusieurs utiliser des ';')</t>
+  </si>
+  <si>
+    <t>#Fournisseur et ref. produits critiques (si plusieurs utiliser des ';')</t>
+  </si>
+  <si>
+    <t>#FNumero de lot produits critiques (si plusieurs utiliser des ';')</t>
+  </si>
+  <si>
+    <t># Lieu de stockage des donnees brutes</t>
+  </si>
+  <si>
+    <t>#Identifiant de l'echantillon</t>
+  </si>
+  <si>
+    <t># Longueur d'onde</t>
+  </si>
+  <si>
+    <t>#Gamme de linéarité</t>
+  </si>
+  <si>
+    <t>#coefficient de détermination (R2)</t>
+  </si>
+  <si>
+    <t>#Pente de la droite de regression</t>
+  </si>
+  <si>
+    <t>#Prise d'essai</t>
+  </si>
+  <si>
+    <t>#Facteur de dilution de l'échantillon</t>
+  </si>
+  <si>
+    <t>#Densité optique mesurée</t>
+  </si>
+  <si>
+    <t>#Commentaire</t>
   </si>
 </sst>
 </file>
@@ -131,7 +170,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -174,81 +213,117 @@
       <c r="L1" t="s">
         <v>11</v>
       </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="J2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L2" t="s">
-        <v>14</v>
+        <v>19</v>
+      </c>
+      <c r="M2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O2" t="s">
+        <v>19</v>
+      </c>
+      <c r="P2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E3" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="F3" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="G3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="H3" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="I3" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="J3" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="K3" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="L3" t="s">
-        <v>24</v>
+        <v>33</v>
+      </c>
+      <c r="M3" t="s">
+        <v>34</v>
+      </c>
+      <c r="N3" t="s">
+        <v>35</v>
+      </c>
+      <c r="O3" t="s">
+        <v>36</v>
+      </c>
+      <c r="P3" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/template_pegase_v1/spectrophotometry.xlsx
+++ b/template_pegase_v1/spectrophotometry.xlsx
@@ -12,15 +12,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="38">
-  <si>
-    <t>Date</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="77">
+  <si>
+    <t>AnalysisDate</t>
   </si>
   <si>
     <t>Operator</t>
   </si>
   <si>
-    <t>LaboratoryOperatingMode</t>
+    <t>LaboratoryOperatingModeCode</t>
+  </si>
+  <si>
+    <t>LaboratoryOperatingModeName</t>
   </si>
   <si>
     <t>CriticalApparatusCriticalSoftware</t>
@@ -38,13 +41,19 @@
     <t>SampleID</t>
   </si>
   <si>
+    <t>Comment</t>
+  </si>
+  <si>
     <t>Wavelength</t>
   </si>
   <si>
     <t>LinearityRange</t>
   </si>
   <si>
-    <t>CoefficientDeterminationR2</t>
+    <t>LinearityRangeUnit</t>
+  </si>
+  <si>
+    <t>DeterminationCoefficientR2</t>
   </si>
   <si>
     <t>SlopeRegressionLine</t>
@@ -53,13 +62,67 @@
     <t>SamplePortion</t>
   </si>
   <si>
+    <t>SamplePortionUnit</t>
+  </si>
+  <si>
     <t>SampledDilution</t>
   </si>
   <si>
     <t>OpticalDensity</t>
   </si>
   <si>
-    <t>Comment</t>
+    <t># Date de l'analyse</t>
+  </si>
+  <si>
+    <t># Manipulateur</t>
+  </si>
+  <si>
+    <t># Code Mode Operatoire de Laboratoire</t>
+  </si>
+  <si>
+    <t># Nom Mode Operatoire de Laboratoire</t>
+  </si>
+  <si>
+    <t># Appareil ou logiciel critique</t>
+  </si>
+  <si>
+    <t># Fournisseur et ref.  produits critiques</t>
+  </si>
+  <si>
+    <t># Numéro de lot produits critiques</t>
+  </si>
+  <si>
+    <t># Lieu de stockage des donnees brutes.</t>
+  </si>
+  <si>
+    <t># Identifiant de l'echantillon</t>
+  </si>
+  <si>
+    <t># Commentaire</t>
+  </si>
+  <si>
+    <t># Longueur d'onde</t>
+  </si>
+  <si>
+    <t># Gamme de linéarité de la méthode</t>
+  </si>
+  <si>
+    <t># Coefficient de détermination (R2)</t>
+  </si>
+  <si>
+    <t># Pente de la droite de régression</t>
+  </si>
+  <si>
+    <t># Prise d'essai</t>
+  </si>
+  <si>
+    <t># Unité de mesure de la prise d’essai</t>
+  </si>
+  <si>
+    <t># Facteur de dilution de l'échantillon</t>
+  </si>
+  <si>
+    <t># Valeur de la densité optique mesurée</t>
   </si>
   <si>
     <t>#date</t>
@@ -68,64 +131,119 @@
     <t>#string</t>
   </si>
   <si>
-    <t>#integer,  unit:nm</t>
+    <t>#integer,
+  unit:nm</t>
   </si>
   <si>
     <t>#float</t>
   </si>
   <si>
-    <t>#float,  unit:mlormg</t>
-  </si>
-  <si>
     <t>#integer</t>
   </si>
   <si>
-    <t>#Date format jj/mm/aaa</t>
-  </si>
-  <si>
-    <t>#Manipulateur (LDAP)</t>
-  </si>
-  <si>
-    <t>#Mode Operatoire de Laboratoire (MOL)</t>
-  </si>
-  <si>
-    <t>#Appareil ou logiciel critique (si plusieurs utiliser des ';')</t>
-  </si>
-  <si>
-    <t>#Fournisseur et ref. produits critiques (si plusieurs utiliser des ';')</t>
-  </si>
-  <si>
-    <t>#FNumero de lot produits critiques (si plusieurs utiliser des ';')</t>
-  </si>
-  <si>
-    <t># Lieu de stockage des donnees brutes</t>
-  </si>
-  <si>
-    <t>#Identifiant de l'echantillon</t>
-  </si>
-  <si>
-    <t># Longueur d'onde</t>
-  </si>
-  <si>
-    <t>#Gamme de linéarité</t>
-  </si>
-  <si>
-    <t>#coefficient de détermination (R2)</t>
-  </si>
-  <si>
-    <t>#Pente de la droite de regression</t>
-  </si>
-  <si>
-    <t>#Prise d'essai</t>
-  </si>
-  <si>
-    <t>#Facteur de dilution de l'échantillon</t>
-  </si>
-  <si>
-    <t>#Densité optique mesurée</t>
-  </si>
-  <si>
-    <t>#Commentaire</t>
+    <t># format:  jj/mm/aaa</t>
+  </si>
+  <si>
+    <t># format: texte, identifiant LDAP</t>
+  </si>
+  <si>
+    <t># format: texte, MO-LAB-XXX, si plusieurs MO-LAB utiliser des ';' pour les séparer</t>
+  </si>
+  <si>
+    <t># format: texte, si plusieurs MO-LAB utiliser des ';' pour les séparer</t>
+  </si>
+  <si>
+    <t># format: texte, si plusieurs appareils/logiciels utiliser des ';' pour les séparer</t>
+  </si>
+  <si>
+    <t># format: texte, si plusieurs produits utiliser des ';' pour les séparer</t>
+  </si>
+  <si>
+    <t># format: texte, si plusieurs produits utiliser des ';' pour les séparer. Conserver le même ordre que dans la colonne Référence des produits.</t>
+  </si>
+  <si>
+    <t># format: texte</t>
+  </si>
+  <si>
+    <t># format: texte, à définir....</t>
+  </si>
+  <si>
+    <t># format: texte libre</t>
+  </si>
+  <si>
+    <t># format: nombre entier, ne pas spécifier d'unité</t>
+  </si>
+  <si>
+    <t># format: alphanumérique XXXX-XXXX,  ne pas spécifier d'unité</t>
+  </si>
+  <si>
+    <t># format: nombre décimal</t>
+  </si>
+  <si>
+    <t># format: nombre décimal, ne pas spécifier d'unité</t>
+  </si>
+  <si>
+    <t># format: nombre entier</t>
+  </si>
+  <si>
+    <t># format: nombre décimal ou NA</t>
+  </si>
+  <si>
+    <t># ex: 12/06/2019</t>
+  </si>
+  <si>
+    <t># ex: fherault</t>
+  </si>
+  <si>
+    <t># ex:  MO-LAB-029 ou MO-LAB-NA si pas de code</t>
+  </si>
+  <si>
+    <t># ex: Dosage du Glutathion dans les tissus</t>
+  </si>
+  <si>
+    <t># ex: Konélab20; appareil2; appareil3</t>
+  </si>
+  <si>
+    <t># ex: THERMO 981304;sCal 981831;Nortrol 981043;Abtrol 981044</t>
+  </si>
+  <si>
+    <t># ex : S415;G716;H342;H654</t>
+  </si>
+  <si>
+    <t># ex: //Konelab37/results/</t>
+  </si>
+  <si>
+    <t># ex: ....</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t># ex: 340</t>
+  </si>
+  <si>
+    <t># ex: 0-3400</t>
+  </si>
+  <si>
+    <t># ex: mg/ml</t>
+  </si>
+  <si>
+    <t># ex: 0.98</t>
+  </si>
+  <si>
+    <t># ex: 0.0005</t>
+  </si>
+  <si>
+    <t># ex: 2.0</t>
+  </si>
+  <si>
+    <t># ex: mg</t>
+  </si>
+  <si>
+    <t># ex: 10</t>
+  </si>
+  <si>
+    <t># ex: 0.335 ou NA</t>
   </si>
 </sst>
 </file>
@@ -170,7 +288,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:Q3"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -225,105 +343,250 @@
       <c r="P1" t="s">
         <v>15</v>
       </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="G2" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="H2" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="I2" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="J2" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="K2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="L2" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="M2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="N2" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="O2" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="P2" t="s">
-        <v>17</v>
+        <v>33</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R2" t="s">
+        <v>35</v>
+      </c>
+      <c r="S2" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="E3" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="F3" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="G3" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="H3" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="I3" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="J3" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="K3" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="L3" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="M3" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="N3" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="O3" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="P3" t="s">
-        <v>37</v>
+        <v>40</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>38</v>
+      </c>
+      <c r="R3" t="s">
+        <v>41</v>
+      </c>
+      <c r="S3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H4" t="s">
+        <v>49</v>
+      </c>
+      <c r="I4" t="s">
+        <v>50</v>
+      </c>
+      <c r="J4" t="s">
+        <v>51</v>
+      </c>
+      <c r="K4" t="s">
+        <v>52</v>
+      </c>
+      <c r="L4" t="s">
+        <v>53</v>
+      </c>
+      <c r="M4" t="s">
+        <v>49</v>
+      </c>
+      <c r="N4" t="s">
+        <v>54</v>
+      </c>
+      <c r="O4" t="s">
+        <v>54</v>
+      </c>
+      <c r="P4" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>49</v>
+      </c>
+      <c r="R4" t="s">
+        <v>56</v>
+      </c>
+      <c r="S4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F5" t="s">
+        <v>63</v>
+      </c>
+      <c r="G5" t="s">
+        <v>64</v>
+      </c>
+      <c r="H5" t="s">
+        <v>65</v>
+      </c>
+      <c r="I5" t="s">
+        <v>66</v>
+      </c>
+      <c r="J5" t="s">
+        <v>67</v>
+      </c>
+      <c r="K5" t="s">
+        <v>68</v>
+      </c>
+      <c r="L5" t="s">
+        <v>69</v>
+      </c>
+      <c r="M5" t="s">
+        <v>70</v>
+      </c>
+      <c r="N5" t="s">
+        <v>71</v>
+      </c>
+      <c r="O5" t="s">
+        <v>72</v>
+      </c>
+      <c r="P5" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>74</v>
+      </c>
+      <c r="R5" t="s">
+        <v>75</v>
+      </c>
+      <c r="S5" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/template_pegase_v1/spectrophotometry.xlsx
+++ b/template_pegase_v1/spectrophotometry.xlsx
@@ -41,36 +41,36 @@
     <t>SampleID</t>
   </si>
   <si>
+    <t>Wavelength</t>
+  </si>
+  <si>
+    <t>LinearityRange</t>
+  </si>
+  <si>
+    <t>LinearityRangeUnit</t>
+  </si>
+  <si>
+    <t>DeterminationCoefficientR2</t>
+  </si>
+  <si>
+    <t>SlopeRegressionLine</t>
+  </si>
+  <si>
+    <t>SamplePortion</t>
+  </si>
+  <si>
+    <t>SamplePortionUnit</t>
+  </si>
+  <si>
+    <t>SampledDilution</t>
+  </si>
+  <si>
+    <t>OpticalDensity</t>
+  </si>
+  <si>
     <t>Comment</t>
   </si>
   <si>
-    <t>Wavelength</t>
-  </si>
-  <si>
-    <t>LinearityRange</t>
-  </si>
-  <si>
-    <t>LinearityRangeUnit</t>
-  </si>
-  <si>
-    <t>DeterminationCoefficientR2</t>
-  </si>
-  <si>
-    <t>SlopeRegressionLine</t>
-  </si>
-  <si>
-    <t>SamplePortion</t>
-  </si>
-  <si>
-    <t>SamplePortionUnit</t>
-  </si>
-  <si>
-    <t>SampledDilution</t>
-  </si>
-  <si>
-    <t>OpticalDensity</t>
-  </si>
-  <si>
     <t># Date de l'analyse</t>
   </si>
   <si>
@@ -98,31 +98,31 @@
     <t># Identifiant de l'echantillon</t>
   </si>
   <si>
+    <t># Longueur d'onde</t>
+  </si>
+  <si>
+    <t># Gamme de linéarité de la méthode</t>
+  </si>
+  <si>
+    <t># Coefficient de détermination (R2)</t>
+  </si>
+  <si>
+    <t># Pente de la droite de régression</t>
+  </si>
+  <si>
+    <t># Prise d'essai</t>
+  </si>
+  <si>
+    <t># Unité de mesure de la prise d’essai</t>
+  </si>
+  <si>
+    <t># Facteur de dilution de l'échantillon</t>
+  </si>
+  <si>
+    <t># Valeur de la densité optique mesurée</t>
+  </si>
+  <si>
     <t># Commentaire</t>
-  </si>
-  <si>
-    <t># Longueur d'onde</t>
-  </si>
-  <si>
-    <t># Gamme de linéarité de la méthode</t>
-  </si>
-  <si>
-    <t># Coefficient de détermination (R2)</t>
-  </si>
-  <si>
-    <t># Pente de la droite de régression</t>
-  </si>
-  <si>
-    <t># Prise d'essai</t>
-  </si>
-  <si>
-    <t># Unité de mesure de la prise d’essai</t>
-  </si>
-  <si>
-    <t># Facteur de dilution de l'échantillon</t>
-  </si>
-  <si>
-    <t># Valeur de la densité optique mesurée</t>
   </si>
   <si>
     <t>#date</t>
@@ -168,27 +168,27 @@
     <t># format: texte, à définir....</t>
   </si>
   <si>
+    <t># format: nombre entier, ne pas spécifier d'unité</t>
+  </si>
+  <si>
+    <t># format: alphanumérique XXXX-XXXX,  ne pas spécifier d'unité</t>
+  </si>
+  <si>
+    <t># format: nombre décimal</t>
+  </si>
+  <si>
+    <t># format: nombre décimal, ne pas spécifier d'unité</t>
+  </si>
+  <si>
+    <t># format: nombre entier</t>
+  </si>
+  <si>
+    <t># format: nombre décimal ou NA</t>
+  </si>
+  <si>
     <t># format: texte libre</t>
   </si>
   <si>
-    <t># format: nombre entier, ne pas spécifier d'unité</t>
-  </si>
-  <si>
-    <t># format: alphanumérique XXXX-XXXX,  ne pas spécifier d'unité</t>
-  </si>
-  <si>
-    <t># format: nombre décimal</t>
-  </si>
-  <si>
-    <t># format: nombre décimal, ne pas spécifier d'unité</t>
-  </si>
-  <si>
-    <t># format: nombre entier</t>
-  </si>
-  <si>
-    <t># format: nombre décimal ou NA</t>
-  </si>
-  <si>
     <t># ex: 12/06/2019</t>
   </si>
   <si>
@@ -216,34 +216,34 @@
     <t># ex: ....</t>
   </si>
   <si>
+    <t># ex: 340</t>
+  </si>
+  <si>
+    <t># ex: 0-3400</t>
+  </si>
+  <si>
+    <t># ex: mg/ml</t>
+  </si>
+  <si>
+    <t># ex: 0.98</t>
+  </si>
+  <si>
+    <t># ex: 0.0005</t>
+  </si>
+  <si>
+    <t># ex: 2.0</t>
+  </si>
+  <si>
+    <t># ex: mg</t>
+  </si>
+  <si>
+    <t># ex: 10</t>
+  </si>
+  <si>
+    <t># ex: 0.335 ou NA</t>
+  </si>
+  <si>
     <t/>
-  </si>
-  <si>
-    <t># ex: 340</t>
-  </si>
-  <si>
-    <t># ex: 0-3400</t>
-  </si>
-  <si>
-    <t># ex: mg/ml</t>
-  </si>
-  <si>
-    <t># ex: 0.98</t>
-  </si>
-  <si>
-    <t># ex: 0.0005</t>
-  </si>
-  <si>
-    <t># ex: 2.0</t>
-  </si>
-  <si>
-    <t># ex: mg</t>
-  </si>
-  <si>
-    <t># ex: 10</t>
-  </si>
-  <si>
-    <t># ex: 0.335 ou NA</t>
   </si>
 </sst>
 </file>
@@ -388,7 +388,7 @@
         <v>29</v>
       </c>
       <c r="L2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M2" t="s">
         <v>30</v>
@@ -441,16 +441,16 @@
         <v>38</v>
       </c>
       <c r="J3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L3" t="s">
         <v>38</v>
       </c>
       <c r="M3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N3" t="s">
         <v>40</v>
@@ -459,16 +459,16 @@
         <v>40</v>
       </c>
       <c r="P3" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>41</v>
+      </c>
+      <c r="R3" t="s">
         <v>40</v>
       </c>
-      <c r="Q3" t="s">
-        <v>38</v>
-      </c>
-      <c r="R3" t="s">
-        <v>41</v>
-      </c>
       <c r="S3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4">
@@ -506,22 +506,22 @@
         <v>52</v>
       </c>
       <c r="L4" t="s">
+        <v>49</v>
+      </c>
+      <c r="M4" t="s">
         <v>53</v>
       </c>
-      <c r="M4" t="s">
-        <v>49</v>
-      </c>
       <c r="N4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O4" t="s">
         <v>54</v>
       </c>
       <c r="P4" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q4" t="s">
         <v>55</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>49</v>
       </c>
       <c r="R4" t="s">
         <v>56</v>

--- a/template_pegase_v1/spectrophotometry.xlsx
+++ b/template_pegase_v1/spectrophotometry.xlsx
@@ -168,7 +168,7 @@
     <t># format: texte, à définir....</t>
   </si>
   <si>
-    <t># format: nombre entier, ne pas spécifier d'unité</t>
+    <t># format: nombre entier, ne pas spécifier d'unité (nm)</t>
   </si>
   <si>
     <t># format: alphanumérique XXXX-XXXX,  ne pas spécifier d'unité</t>
